--- a/Heart_Network_Example_Paced.xlsx
+++ b/Heart_Network_Example_Paced.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rfen801\HeartModelPub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710DD3C0-2B36-45A7-87B3-E5D250EC2729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{698AE6B3-4597-4B38-9CEA-33A764551095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43560" yWindow="2595" windowWidth="28905" windowHeight="16260" activeTab="1" xr2:uid="{81EF8390-3FB0-4307-8260-CAC33E855B7F}"/>
+    <workbookView xWindow="44235" yWindow="3480" windowWidth="28995" windowHeight="16875" activeTab="2" xr2:uid="{81EF8390-3FB0-4307-8260-CAC33E855B7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Node" sheetId="1" r:id="rId1"/>
     <sheet name="Path" sheetId="2" r:id="rId2"/>
+    <sheet name="Probe" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="88">
   <si>
     <t>Node_name</t>
   </si>
@@ -253,6 +257,54 @@
   </si>
   <si>
     <t>Path</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>Aring</t>
+  </si>
+  <si>
+    <t>Adrt</t>
+  </si>
+  <si>
+    <t>RA_a</t>
+  </si>
+  <si>
+    <t>Alring</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Atip</t>
+  </si>
+  <si>
+    <t>Altip</t>
+  </si>
+  <si>
+    <t>Vring</t>
+  </si>
+  <si>
+    <t>Vdrt</t>
+  </si>
+  <si>
+    <t>RBB_m</t>
+  </si>
+  <si>
+    <t>Vlring</t>
+  </si>
+  <si>
+    <t>RVA</t>
+  </si>
+  <si>
+    <t>Vtip</t>
+  </si>
+  <si>
+    <t>Vltip</t>
   </si>
 </sst>
 </file>
@@ -277,7 +329,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +372,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -348,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -379,6 +443,8 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,6 +460,5712 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Node_second"/>
+      <sheetName val="Node"/>
+      <sheetName val="Path_second"/>
+      <sheetName val="Path"/>
+      <sheetName val="Probe"/>
+      <sheetName val="Upenn"/>
+      <sheetName val="node_position"/>
+      <sheetName val="ERP"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Node_name</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Type</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Index</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>BCL</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>SD</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>f1</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>f2</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>sig1</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>sig2</v>
+          </cell>
+          <cell r="J1" t="str">
+            <v>d2</v>
+          </cell>
+          <cell r="K1" t="str">
+            <v>ERP</v>
+          </cell>
+          <cell r="L1" t="str">
+            <v>d0</v>
+          </cell>
+          <cell r="M1" t="str">
+            <v>-APA</v>
+          </cell>
+          <cell r="N1" t="str">
+            <v>VT</v>
+          </cell>
+          <cell r="O1" t="str">
+            <v>VR</v>
+          </cell>
+          <cell r="P1" t="str">
+            <v>Vh</v>
+          </cell>
+          <cell r="Q1" t="str">
+            <v>hr</v>
+          </cell>
+          <cell r="R1" t="str">
+            <v>hs</v>
+          </cell>
+          <cell r="S1" t="str">
+            <v>s</v>
+          </cell>
+          <cell r="T1" t="str">
+            <v>j</v>
+          </cell>
+          <cell r="U1" t="str">
+            <v>m</v>
+          </cell>
+          <cell r="V1" t="str">
+            <v>h</v>
+          </cell>
+          <cell r="W1" t="str">
+            <v>f</v>
+          </cell>
+          <cell r="X1" t="str">
+            <v>r</v>
+          </cell>
+          <cell r="Y1" t="str">
+            <v>ax0</v>
+          </cell>
+          <cell r="Z1" t="str">
+            <v>ay0</v>
+          </cell>
+          <cell r="AA1" t="str">
+            <v>az0</v>
+          </cell>
+          <cell r="AB1" t="str">
+            <v>ax1</v>
+          </cell>
+          <cell r="AC1" t="str">
+            <v>ay1</v>
+          </cell>
+          <cell r="AD1" t="str">
+            <v>az1</v>
+          </cell>
+          <cell r="AE1" t="str">
+            <v>ax2</v>
+          </cell>
+          <cell r="AF1" t="str">
+            <v>ay2</v>
+          </cell>
+          <cell r="AG1" t="str">
+            <v>az2</v>
+          </cell>
+          <cell r="AH1" t="str">
+            <v>ax3</v>
+          </cell>
+          <cell r="AI1" t="str">
+            <v>ay3</v>
+          </cell>
+          <cell r="AJ1" t="str">
+            <v>az3</v>
+          </cell>
+          <cell r="AK1" t="str">
+            <v>bx1</v>
+          </cell>
+          <cell r="AL1" t="str">
+            <v>by1</v>
+          </cell>
+          <cell r="AM1" t="str">
+            <v>bz1</v>
+          </cell>
+          <cell r="AN1" t="str">
+            <v>VR</v>
+          </cell>
+          <cell r="AO1" t="str">
+            <v>VT</v>
+          </cell>
+          <cell r="AP1" t="str">
+            <v>VO</v>
+          </cell>
+          <cell r="AQ1" t="str">
+            <v>a</v>
+          </cell>
+          <cell r="AR1" t="str">
+            <v>b</v>
+          </cell>
+          <cell r="AS1" t="str">
+            <v>c</v>
+          </cell>
+          <cell r="AT1" t="str">
+            <v>d</v>
+          </cell>
+          <cell r="AU1" t="str">
+            <v>e</v>
+          </cell>
+          <cell r="AV1" t="str">
+            <v>x</v>
+          </cell>
+          <cell r="AW1" t="str">
+            <v>y</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>SA</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="C2">
+            <v>1</v>
+          </cell>
+          <cell r="D2">
+            <v>814</v>
+          </cell>
+          <cell r="E2">
+            <v>2</v>
+          </cell>
+          <cell r="F2">
+            <v>0.1</v>
+          </cell>
+          <cell r="G2">
+            <v>0.25</v>
+          </cell>
+          <cell r="H2">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I2">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J2">
+            <v>1.2809999999999999</v>
+          </cell>
+          <cell r="K2">
+            <v>161.5</v>
+          </cell>
+          <cell r="L2">
+            <v>-0.7732</v>
+          </cell>
+          <cell r="M2">
+            <v>-85.3</v>
+          </cell>
+          <cell r="N2">
+            <v>23.81</v>
+          </cell>
+          <cell r="O2">
+            <v>47.94</v>
+          </cell>
+          <cell r="P2">
+            <v>-4</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.1</v>
+          </cell>
+          <cell r="R2">
+            <v>35</v>
+          </cell>
+          <cell r="S2">
+            <v>5</v>
+          </cell>
+          <cell r="T2">
+            <v>0</v>
+          </cell>
+          <cell r="U2">
+            <v>1</v>
+          </cell>
+          <cell r="V2">
+            <v>0.2</v>
+          </cell>
+          <cell r="W2">
+            <v>0.1</v>
+          </cell>
+          <cell r="X2">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y2"/>
+          <cell r="Z2"/>
+          <cell r="AA2"/>
+          <cell r="AB2"/>
+          <cell r="AC2"/>
+          <cell r="AD2"/>
+          <cell r="AE2"/>
+          <cell r="AF2"/>
+          <cell r="AG2"/>
+          <cell r="AH2"/>
+          <cell r="AI2"/>
+          <cell r="AJ2"/>
+          <cell r="AK2"/>
+          <cell r="AL2"/>
+          <cell r="AM2"/>
+          <cell r="AN2"/>
+          <cell r="AO2"/>
+          <cell r="AP2"/>
+          <cell r="AQ2"/>
+          <cell r="AR2"/>
+          <cell r="AS2"/>
+          <cell r="AT2"/>
+          <cell r="AU2"/>
+          <cell r="AV2">
+            <v>54.2</v>
+          </cell>
+          <cell r="AW2">
+            <v>118.2</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>SA_a</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C3">
+            <v>2</v>
+          </cell>
+          <cell r="D3"/>
+          <cell r="E3"/>
+          <cell r="F3"/>
+          <cell r="G3"/>
+          <cell r="H3"/>
+          <cell r="I3"/>
+          <cell r="J3"/>
+          <cell r="K3"/>
+          <cell r="L3"/>
+          <cell r="M3"/>
+          <cell r="N3"/>
+          <cell r="O3"/>
+          <cell r="P3"/>
+          <cell r="Q3"/>
+          <cell r="R3"/>
+          <cell r="S3"/>
+          <cell r="T3"/>
+          <cell r="U3"/>
+          <cell r="V3"/>
+          <cell r="W3"/>
+          <cell r="X3"/>
+          <cell r="Y3">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z3">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA3">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB3">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC3">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD3">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE3">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF3">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG3">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH3">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI3">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ3">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK3">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL3">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM3">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN3">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO3">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP3">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ3">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR3">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS3">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT3">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU3">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV3">
+            <v>57.866666666666667</v>
+          </cell>
+          <cell r="AW3">
+            <v>119.83333333333334</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>SA_b</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C4">
+            <v>3</v>
+          </cell>
+          <cell r="D4"/>
+          <cell r="E4"/>
+          <cell r="F4"/>
+          <cell r="G4"/>
+          <cell r="H4"/>
+          <cell r="I4"/>
+          <cell r="J4"/>
+          <cell r="K4"/>
+          <cell r="L4"/>
+          <cell r="M4"/>
+          <cell r="N4"/>
+          <cell r="O4"/>
+          <cell r="P4"/>
+          <cell r="Q4"/>
+          <cell r="R4"/>
+          <cell r="S4"/>
+          <cell r="T4"/>
+          <cell r="U4"/>
+          <cell r="V4"/>
+          <cell r="W4"/>
+          <cell r="X4"/>
+          <cell r="Y4">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z4">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA4">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB4">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC4">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD4">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE4">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF4">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG4">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH4">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI4">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ4">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK4">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL4">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM4">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN4">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO4">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP4">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ4">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR4">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS4">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT4">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU4">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV4">
+            <v>57.400000000000006</v>
+          </cell>
+          <cell r="AW4">
+            <v>118.2</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>SA_c</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C5">
+            <v>4</v>
+          </cell>
+          <cell r="D5"/>
+          <cell r="E5"/>
+          <cell r="F5"/>
+          <cell r="G5"/>
+          <cell r="H5"/>
+          <cell r="I5"/>
+          <cell r="J5"/>
+          <cell r="K5"/>
+          <cell r="L5"/>
+          <cell r="M5"/>
+          <cell r="N5"/>
+          <cell r="O5"/>
+          <cell r="P5"/>
+          <cell r="Q5"/>
+          <cell r="R5"/>
+          <cell r="S5"/>
+          <cell r="T5"/>
+          <cell r="U5"/>
+          <cell r="V5"/>
+          <cell r="W5"/>
+          <cell r="X5"/>
+          <cell r="Y5">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z5">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA5">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB5">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC5">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD5">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE5">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF5">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG5">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH5">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI5">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ5">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK5">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL5">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM5">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN5">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO5">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP5">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ5">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR5">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS5">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT5">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU5">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV5">
+            <v>56.6</v>
+          </cell>
+          <cell r="AW5">
+            <v>115.64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>SA_d</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C6">
+            <v>5</v>
+          </cell>
+          <cell r="D6">
+            <v>2100</v>
+          </cell>
+          <cell r="E6">
+            <v>2</v>
+          </cell>
+          <cell r="F6">
+            <v>0.1</v>
+          </cell>
+          <cell r="G6">
+            <v>0.25</v>
+          </cell>
+          <cell r="H6">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I6">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J6">
+            <v>3.34</v>
+          </cell>
+          <cell r="K6">
+            <v>108</v>
+          </cell>
+          <cell r="L6">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M6">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N6">
+            <v>25.05</v>
+          </cell>
+          <cell r="O6">
+            <v>41.25</v>
+          </cell>
+          <cell r="P6">
+            <v>-15</v>
+          </cell>
+          <cell r="Q6">
+            <v>0.1</v>
+          </cell>
+          <cell r="R6">
+            <v>35</v>
+          </cell>
+          <cell r="S6">
+            <v>5</v>
+          </cell>
+          <cell r="T6">
+            <v>2</v>
+          </cell>
+          <cell r="U6">
+            <v>1</v>
+          </cell>
+          <cell r="V6">
+            <v>0</v>
+          </cell>
+          <cell r="W6">
+            <v>0</v>
+          </cell>
+          <cell r="X6">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y6">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z6">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA6">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB6">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC6">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD6">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE6">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF6">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG6">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH6">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI6">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ6">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK6">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL6">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM6">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN6">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO6">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP6">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ6">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR6">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS6">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT6">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU6">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV6">
+            <v>52.36</v>
+          </cell>
+          <cell r="AW6">
+            <v>114.04</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>CT</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C7">
+            <v>6</v>
+          </cell>
+          <cell r="D7"/>
+          <cell r="E7"/>
+          <cell r="F7"/>
+          <cell r="G7"/>
+          <cell r="H7"/>
+          <cell r="I7"/>
+          <cell r="J7"/>
+          <cell r="K7"/>
+          <cell r="L7"/>
+          <cell r="M7"/>
+          <cell r="N7"/>
+          <cell r="O7"/>
+          <cell r="P7"/>
+          <cell r="Q7"/>
+          <cell r="R7"/>
+          <cell r="S7"/>
+          <cell r="T7"/>
+          <cell r="U7"/>
+          <cell r="V7"/>
+          <cell r="W7"/>
+          <cell r="X7"/>
+          <cell r="Y7">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z7">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA7">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB7">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC7">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD7">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE7">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF7">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG7">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH7">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI7">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ7">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK7">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL7">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM7">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN7">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO7">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP7">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ7">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR7">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS7">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT7">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU7">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV7">
+            <v>53.8</v>
+          </cell>
+          <cell r="AW7">
+            <v>64.599999999999994</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>CT_a</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C8">
+            <v>7</v>
+          </cell>
+          <cell r="D8">
+            <v>2100</v>
+          </cell>
+          <cell r="E8">
+            <v>2</v>
+          </cell>
+          <cell r="F8">
+            <v>0.1</v>
+          </cell>
+          <cell r="G8">
+            <v>0.25</v>
+          </cell>
+          <cell r="H8">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I8">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J8">
+            <v>3.34</v>
+          </cell>
+          <cell r="K8">
+            <v>108</v>
+          </cell>
+          <cell r="L8">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M8">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N8">
+            <v>25.05</v>
+          </cell>
+          <cell r="O8">
+            <v>41.25</v>
+          </cell>
+          <cell r="P8">
+            <v>-15</v>
+          </cell>
+          <cell r="Q8">
+            <v>0.1</v>
+          </cell>
+          <cell r="R8">
+            <v>35</v>
+          </cell>
+          <cell r="S8">
+            <v>5</v>
+          </cell>
+          <cell r="T8">
+            <v>2</v>
+          </cell>
+          <cell r="U8">
+            <v>1</v>
+          </cell>
+          <cell r="V8">
+            <v>0</v>
+          </cell>
+          <cell r="W8">
+            <v>0</v>
+          </cell>
+          <cell r="X8">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y8">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z8">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA8">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB8">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC8">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD8">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE8">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF8">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG8">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH8">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI8">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ8">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK8">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL8">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM8">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN8">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO8">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP8">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ8">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR8">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS8">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT8">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU8">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV8">
+            <v>45</v>
+          </cell>
+          <cell r="AW8">
+            <v>97.4</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>OS</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C9">
+            <v>8</v>
+          </cell>
+          <cell r="D9">
+            <v>2100</v>
+          </cell>
+          <cell r="E9">
+            <v>2</v>
+          </cell>
+          <cell r="F9">
+            <v>0.1</v>
+          </cell>
+          <cell r="G9">
+            <v>0.25</v>
+          </cell>
+          <cell r="H9">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I9">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J9">
+            <v>3.34</v>
+          </cell>
+          <cell r="K9">
+            <v>108</v>
+          </cell>
+          <cell r="L9">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M9">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N9">
+            <v>25.05</v>
+          </cell>
+          <cell r="O9">
+            <v>41.25</v>
+          </cell>
+          <cell r="P9">
+            <v>-15</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.1</v>
+          </cell>
+          <cell r="R9">
+            <v>35</v>
+          </cell>
+          <cell r="S9">
+            <v>5</v>
+          </cell>
+          <cell r="T9">
+            <v>2</v>
+          </cell>
+          <cell r="U9">
+            <v>1</v>
+          </cell>
+          <cell r="V9">
+            <v>0</v>
+          </cell>
+          <cell r="W9">
+            <v>0</v>
+          </cell>
+          <cell r="X9">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y9">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z9">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA9">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB9">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC9">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD9">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE9">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF9">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG9">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH9">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI9">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ9">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK9">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL9">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM9">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN9">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO9">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP9">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ9">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR9">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS9">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT9">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU9">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV9">
+            <v>66.2</v>
+          </cell>
+          <cell r="AW9">
+            <v>105.4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>RE</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="C10">
+            <v>9</v>
+          </cell>
+          <cell r="D10">
+            <v>2100</v>
+          </cell>
+          <cell r="E10">
+            <v>2</v>
+          </cell>
+          <cell r="F10">
+            <v>0.1</v>
+          </cell>
+          <cell r="G10">
+            <v>0.25</v>
+          </cell>
+          <cell r="H10">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I10">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J10">
+            <v>3.34</v>
+          </cell>
+          <cell r="K10">
+            <v>278</v>
+          </cell>
+          <cell r="L10">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M10">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N10">
+            <v>25.05</v>
+          </cell>
+          <cell r="O10">
+            <v>41.25</v>
+          </cell>
+          <cell r="P10">
+            <v>-4</v>
+          </cell>
+          <cell r="Q10">
+            <v>0.1</v>
+          </cell>
+          <cell r="R10">
+            <v>35</v>
+          </cell>
+          <cell r="S10">
+            <v>5</v>
+          </cell>
+          <cell r="T10">
+            <v>0</v>
+          </cell>
+          <cell r="U10">
+            <v>1</v>
+          </cell>
+          <cell r="V10">
+            <v>0.2</v>
+          </cell>
+          <cell r="W10">
+            <v>0.1</v>
+          </cell>
+          <cell r="X10">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y10"/>
+          <cell r="Z10"/>
+          <cell r="AA10"/>
+          <cell r="AB10"/>
+          <cell r="AC10"/>
+          <cell r="AD10"/>
+          <cell r="AE10"/>
+          <cell r="AF10"/>
+          <cell r="AG10"/>
+          <cell r="AH10"/>
+          <cell r="AI10"/>
+          <cell r="AJ10"/>
+          <cell r="AK10"/>
+          <cell r="AL10"/>
+          <cell r="AM10"/>
+          <cell r="AN10"/>
+          <cell r="AO10"/>
+          <cell r="AP10"/>
+          <cell r="AQ10"/>
+          <cell r="AR10"/>
+          <cell r="AS10"/>
+          <cell r="AT10"/>
+          <cell r="AU10"/>
+          <cell r="AV10">
+            <v>60.2</v>
+          </cell>
+          <cell r="AW10">
+            <v>97.4</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>LNB</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C11">
+            <v>10</v>
+          </cell>
+          <cell r="D11">
+            <v>2300</v>
+          </cell>
+          <cell r="E11">
+            <v>2</v>
+          </cell>
+          <cell r="F11">
+            <v>0.1</v>
+          </cell>
+          <cell r="G11">
+            <v>0.25</v>
+          </cell>
+          <cell r="H11">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I11">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J11">
+            <v>3.34</v>
+          </cell>
+          <cell r="K11">
+            <v>108</v>
+          </cell>
+          <cell r="L11">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M11">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N11">
+            <v>25.05</v>
+          </cell>
+          <cell r="O11">
+            <v>41.25</v>
+          </cell>
+          <cell r="P11">
+            <v>-15</v>
+          </cell>
+          <cell r="Q11">
+            <v>0.1</v>
+          </cell>
+          <cell r="R11">
+            <v>35</v>
+          </cell>
+          <cell r="S11">
+            <v>5</v>
+          </cell>
+          <cell r="T11">
+            <v>2</v>
+          </cell>
+          <cell r="U11">
+            <v>1</v>
+          </cell>
+          <cell r="V11">
+            <v>0</v>
+          </cell>
+          <cell r="W11">
+            <v>0</v>
+          </cell>
+          <cell r="X11">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y11">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z11">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA11">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB11">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC11">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD11">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE11">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF11">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG11">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH11">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI11">
+            <v>1.4619999999999999E-2</v>
+          </cell>
+          <cell r="AJ11">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK11">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL11">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM11">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN11">
+            <v>30</v>
+          </cell>
+          <cell r="AO11">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP11">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ11">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR11">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS11">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT11">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU11">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV11">
+            <v>60.6</v>
+          </cell>
+          <cell r="AW11">
+            <v>85.4</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>TC_f</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C12">
+            <v>11</v>
+          </cell>
+          <cell r="D12">
+            <v>2100</v>
+          </cell>
+          <cell r="E12">
+            <v>2</v>
+          </cell>
+          <cell r="F12">
+            <v>0.1</v>
+          </cell>
+          <cell r="G12">
+            <v>0.25</v>
+          </cell>
+          <cell r="H12">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I12">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J12">
+            <v>3.34</v>
+          </cell>
+          <cell r="K12">
+            <v>108</v>
+          </cell>
+          <cell r="L12">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M12">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N12">
+            <v>25.05</v>
+          </cell>
+          <cell r="O12">
+            <v>41.25</v>
+          </cell>
+          <cell r="P12">
+            <v>-15</v>
+          </cell>
+          <cell r="Q12">
+            <v>0.1</v>
+          </cell>
+          <cell r="R12">
+            <v>35</v>
+          </cell>
+          <cell r="S12">
+            <v>5</v>
+          </cell>
+          <cell r="T12">
+            <v>2</v>
+          </cell>
+          <cell r="U12">
+            <v>1</v>
+          </cell>
+          <cell r="V12">
+            <v>0</v>
+          </cell>
+          <cell r="W12">
+            <v>0</v>
+          </cell>
+          <cell r="X12">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y12">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z12">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA12">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB12">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC12">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD12">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE12">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF12">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG12">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH12">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI12">
+            <v>8.7200000000000003E-3</v>
+          </cell>
+          <cell r="AJ12">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK12">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL12">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM12">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN12">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO12">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP12">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ12">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR12">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS12">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT12">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU12">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV12">
+            <v>67</v>
+          </cell>
+          <cell r="AW12">
+            <v>97.4</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>CN</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>N</v>
+          </cell>
+          <cell r="C13">
+            <v>12</v>
+          </cell>
+          <cell r="D13">
+            <v>1500</v>
+          </cell>
+          <cell r="E13">
+            <v>2</v>
+          </cell>
+          <cell r="F13">
+            <v>0.1</v>
+          </cell>
+          <cell r="G13">
+            <v>0.25</v>
+          </cell>
+          <cell r="H13">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I13">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J13">
+            <v>3.34</v>
+          </cell>
+          <cell r="K13">
+            <v>214</v>
+          </cell>
+          <cell r="L13">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M13">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N13">
+            <v>25.05</v>
+          </cell>
+          <cell r="O13">
+            <v>41.25</v>
+          </cell>
+          <cell r="P13">
+            <v>-4</v>
+          </cell>
+          <cell r="Q13">
+            <v>0.1</v>
+          </cell>
+          <cell r="R13">
+            <v>35</v>
+          </cell>
+          <cell r="S13">
+            <v>5</v>
+          </cell>
+          <cell r="T13">
+            <v>0</v>
+          </cell>
+          <cell r="U13">
+            <v>1</v>
+          </cell>
+          <cell r="V13">
+            <v>0.2</v>
+          </cell>
+          <cell r="W13">
+            <v>0.8</v>
+          </cell>
+          <cell r="X13">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y13"/>
+          <cell r="Z13"/>
+          <cell r="AA13"/>
+          <cell r="AB13"/>
+          <cell r="AC13"/>
+          <cell r="AD13"/>
+          <cell r="AE13"/>
+          <cell r="AF13"/>
+          <cell r="AG13"/>
+          <cell r="AH13"/>
+          <cell r="AI13"/>
+          <cell r="AJ13"/>
+          <cell r="AK13"/>
+          <cell r="AL13"/>
+          <cell r="AM13"/>
+          <cell r="AN13"/>
+          <cell r="AO13"/>
+          <cell r="AP13"/>
+          <cell r="AQ13"/>
+          <cell r="AR13"/>
+          <cell r="AS13"/>
+          <cell r="AT13"/>
+          <cell r="AU13"/>
+          <cell r="AV13">
+            <v>67.400000000000006</v>
+          </cell>
+          <cell r="AW13">
+            <v>92.2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>RA_a</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C14">
+            <v>13</v>
+          </cell>
+          <cell r="D14"/>
+          <cell r="E14"/>
+          <cell r="F14"/>
+          <cell r="G14"/>
+          <cell r="H14"/>
+          <cell r="I14"/>
+          <cell r="J14"/>
+          <cell r="K14"/>
+          <cell r="L14"/>
+          <cell r="M14"/>
+          <cell r="N14"/>
+          <cell r="O14"/>
+          <cell r="P14"/>
+          <cell r="Q14"/>
+          <cell r="R14"/>
+          <cell r="S14"/>
+          <cell r="T14"/>
+          <cell r="U14"/>
+          <cell r="V14"/>
+          <cell r="W14"/>
+          <cell r="X14"/>
+          <cell r="Y14">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z14">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA14">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB14">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC14">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD14">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE14">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF14">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG14">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH14">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI14">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ14">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK14">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL14">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM14">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN14">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO14">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP14">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ14">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR14">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS14">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT14">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU14">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV14">
+            <v>70.2</v>
+          </cell>
+          <cell r="AW14">
+            <v>118.2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>RA</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C15">
+            <v>14</v>
+          </cell>
+          <cell r="D15"/>
+          <cell r="E15"/>
+          <cell r="F15"/>
+          <cell r="G15"/>
+          <cell r="H15"/>
+          <cell r="I15"/>
+          <cell r="J15"/>
+          <cell r="K15"/>
+          <cell r="L15"/>
+          <cell r="M15"/>
+          <cell r="N15"/>
+          <cell r="O15"/>
+          <cell r="P15"/>
+          <cell r="Q15"/>
+          <cell r="R15"/>
+          <cell r="S15"/>
+          <cell r="T15"/>
+          <cell r="U15"/>
+          <cell r="V15"/>
+          <cell r="W15"/>
+          <cell r="X15"/>
+          <cell r="Y15">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z15">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA15">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB15">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC15">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD15">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE15">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF15">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG15">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH15">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI15">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ15">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK15">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL15">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM15">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN15">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO15">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP15">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ15">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR15">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS15">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT15">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU15">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV15">
+            <v>79.400000000000006</v>
+          </cell>
+          <cell r="AW15">
+            <v>107.8</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>CS_LA</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C16">
+            <v>15</v>
+          </cell>
+          <cell r="D16">
+            <v>2200</v>
+          </cell>
+          <cell r="E16">
+            <v>2</v>
+          </cell>
+          <cell r="F16">
+            <v>0.1</v>
+          </cell>
+          <cell r="G16">
+            <v>0.25</v>
+          </cell>
+          <cell r="H16">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I16">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J16">
+            <v>3.34</v>
+          </cell>
+          <cell r="K16">
+            <v>108</v>
+          </cell>
+          <cell r="L16">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M16">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N16">
+            <v>25.05</v>
+          </cell>
+          <cell r="O16">
+            <v>41.25</v>
+          </cell>
+          <cell r="P16">
+            <v>-15</v>
+          </cell>
+          <cell r="Q16">
+            <v>0.1</v>
+          </cell>
+          <cell r="R16">
+            <v>35</v>
+          </cell>
+          <cell r="S16">
+            <v>5</v>
+          </cell>
+          <cell r="T16">
+            <v>2</v>
+          </cell>
+          <cell r="U16">
+            <v>1</v>
+          </cell>
+          <cell r="V16">
+            <v>0</v>
+          </cell>
+          <cell r="W16">
+            <v>0</v>
+          </cell>
+          <cell r="X16">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y16">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z16">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA16">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB16">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC16">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD16">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE16">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF16">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG16">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH16">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI16">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ16">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK16">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL16">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM16">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN16">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO16">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP16">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ16">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR16">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS16">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT16">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU16">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV16">
+            <v>118.6</v>
+          </cell>
+          <cell r="AW16">
+            <v>133.80000000000001</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>Bach</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C17">
+            <v>16</v>
+          </cell>
+          <cell r="D17"/>
+          <cell r="E17"/>
+          <cell r="F17"/>
+          <cell r="G17"/>
+          <cell r="H17"/>
+          <cell r="I17"/>
+          <cell r="J17"/>
+          <cell r="K17"/>
+          <cell r="L17"/>
+          <cell r="M17"/>
+          <cell r="N17"/>
+          <cell r="O17"/>
+          <cell r="P17"/>
+          <cell r="Q17"/>
+          <cell r="R17"/>
+          <cell r="S17"/>
+          <cell r="T17"/>
+          <cell r="U17"/>
+          <cell r="V17"/>
+          <cell r="W17"/>
+          <cell r="X17"/>
+          <cell r="Y17">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z17">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA17">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB17">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC17">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD17">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE17">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF17">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG17">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH17">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI17">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ17">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK17">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL17">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM17">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN17">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO17">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP17">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ17">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR17">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS17">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT17">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU17">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV17">
+            <v>98.2</v>
+          </cell>
+          <cell r="AW17">
+            <v>137.80000000000001</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>LA_a</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C18">
+            <v>17</v>
+          </cell>
+          <cell r="D18"/>
+          <cell r="E18"/>
+          <cell r="F18"/>
+          <cell r="G18"/>
+          <cell r="H18"/>
+          <cell r="I18"/>
+          <cell r="J18"/>
+          <cell r="K18"/>
+          <cell r="L18"/>
+          <cell r="M18"/>
+          <cell r="N18"/>
+          <cell r="O18"/>
+          <cell r="P18"/>
+          <cell r="Q18"/>
+          <cell r="R18"/>
+          <cell r="S18"/>
+          <cell r="T18"/>
+          <cell r="U18"/>
+          <cell r="V18"/>
+          <cell r="W18"/>
+          <cell r="X18"/>
+          <cell r="Y18">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z18">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA18">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB18">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC18">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD18">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE18">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF18">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG18">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH18">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI18">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ18">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK18">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL18">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM18">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN18">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO18">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP18">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ18">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR18">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS18">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT18">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU18">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV18">
+            <v>125.4</v>
+          </cell>
+          <cell r="AW18">
+            <v>139.80000000000001</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>LA</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C19">
+            <v>18</v>
+          </cell>
+          <cell r="D19"/>
+          <cell r="E19"/>
+          <cell r="F19"/>
+          <cell r="G19"/>
+          <cell r="H19"/>
+          <cell r="I19"/>
+          <cell r="J19"/>
+          <cell r="K19"/>
+          <cell r="L19"/>
+          <cell r="M19"/>
+          <cell r="N19"/>
+          <cell r="O19"/>
+          <cell r="P19"/>
+          <cell r="Q19"/>
+          <cell r="R19"/>
+          <cell r="S19"/>
+          <cell r="T19"/>
+          <cell r="U19"/>
+          <cell r="V19"/>
+          <cell r="W19"/>
+          <cell r="X19"/>
+          <cell r="Y19">
+            <v>-0.103765168727061</v>
+          </cell>
+          <cell r="Z19">
+            <v>-3.1471897227669299E-2</v>
+          </cell>
+          <cell r="AA19">
+            <v>-1.9867289355374199E-2</v>
+          </cell>
+          <cell r="AB19">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC19">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD19">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE19">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF19">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG19">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH19">
+            <v>-0.27112892991402199</v>
+          </cell>
+          <cell r="AI19">
+            <v>1.3131104586741001E-2</v>
+          </cell>
+          <cell r="AJ19">
+            <v>2.02454412350966E-4</v>
+          </cell>
+          <cell r="AK19">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL19">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM19">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN19">
+            <v>40.576245761527801</v>
+          </cell>
+          <cell r="AO19">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP19">
+            <v>112.44762511774699</v>
+          </cell>
+          <cell r="AQ19">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR19">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS19">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT19">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU19">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV19">
+            <v>135.4</v>
+          </cell>
+          <cell r="AW19">
+            <v>130.19999999999999</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>BH</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C20">
+            <v>19</v>
+          </cell>
+          <cell r="D20">
+            <v>2300</v>
+          </cell>
+          <cell r="E20">
+            <v>2</v>
+          </cell>
+          <cell r="F20">
+            <v>0.1</v>
+          </cell>
+          <cell r="G20">
+            <v>0.25</v>
+          </cell>
+          <cell r="H20">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I20">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J20">
+            <v>3.34</v>
+          </cell>
+          <cell r="K20">
+            <v>108</v>
+          </cell>
+          <cell r="L20">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M20">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N20">
+            <v>25.05</v>
+          </cell>
+          <cell r="O20">
+            <v>41.25</v>
+          </cell>
+          <cell r="P20">
+            <v>-15</v>
+          </cell>
+          <cell r="Q20">
+            <v>0.1</v>
+          </cell>
+          <cell r="R20">
+            <v>35</v>
+          </cell>
+          <cell r="S20">
+            <v>5</v>
+          </cell>
+          <cell r="T20">
+            <v>2</v>
+          </cell>
+          <cell r="U20">
+            <v>1</v>
+          </cell>
+          <cell r="V20">
+            <v>0</v>
+          </cell>
+          <cell r="W20">
+            <v>0</v>
+          </cell>
+          <cell r="X20">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y20">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z20">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA20">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB20">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC20">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD20">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE20">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF20">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG20">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH20">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI20">
+            <v>1.3939999999999999E-2</v>
+          </cell>
+          <cell r="AJ20">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK20">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL20">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM20">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN20">
+            <v>30</v>
+          </cell>
+          <cell r="AO20">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP20">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ20">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR20">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS20">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT20">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU20">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV20">
+            <v>68.2</v>
+          </cell>
+          <cell r="AW20">
+            <v>86.6</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>His_p</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C21">
+            <v>20</v>
+          </cell>
+          <cell r="D21">
+            <v>2300</v>
+          </cell>
+          <cell r="E21">
+            <v>2</v>
+          </cell>
+          <cell r="F21">
+            <v>0.1</v>
+          </cell>
+          <cell r="G21">
+            <v>0.25</v>
+          </cell>
+          <cell r="H21">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I21">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J21">
+            <v>3.34</v>
+          </cell>
+          <cell r="K21">
+            <v>108</v>
+          </cell>
+          <cell r="L21">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M21">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N21">
+            <v>25.05</v>
+          </cell>
+          <cell r="O21">
+            <v>41.25</v>
+          </cell>
+          <cell r="P21">
+            <v>-15</v>
+          </cell>
+          <cell r="Q21">
+            <v>0.1</v>
+          </cell>
+          <cell r="R21">
+            <v>35</v>
+          </cell>
+          <cell r="S21">
+            <v>5</v>
+          </cell>
+          <cell r="T21">
+            <v>2</v>
+          </cell>
+          <cell r="U21">
+            <v>1</v>
+          </cell>
+          <cell r="V21">
+            <v>0</v>
+          </cell>
+          <cell r="W21">
+            <v>0</v>
+          </cell>
+          <cell r="X21">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y21">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z21">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA21">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB21">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC21">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD21">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE21">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF21">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG21">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH21">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI21">
+            <v>1.106E-2</v>
+          </cell>
+          <cell r="AJ21">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK21">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL21">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM21">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN21">
+            <v>30</v>
+          </cell>
+          <cell r="AO21">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP21">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ21">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR21">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS21">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT21">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU21">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV21">
+            <v>81.8</v>
+          </cell>
+          <cell r="AW21">
+            <v>99.4</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>His_m</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C22">
+            <v>21</v>
+          </cell>
+          <cell r="D22">
+            <v>2300</v>
+          </cell>
+          <cell r="E22">
+            <v>2</v>
+          </cell>
+          <cell r="F22">
+            <v>0.1</v>
+          </cell>
+          <cell r="G22">
+            <v>0.25</v>
+          </cell>
+          <cell r="H22">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I22">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J22">
+            <v>3.34</v>
+          </cell>
+          <cell r="K22">
+            <v>108</v>
+          </cell>
+          <cell r="L22">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M22">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N22">
+            <v>25.05</v>
+          </cell>
+          <cell r="O22">
+            <v>41.25</v>
+          </cell>
+          <cell r="P22">
+            <v>-15</v>
+          </cell>
+          <cell r="Q22">
+            <v>0.1</v>
+          </cell>
+          <cell r="R22">
+            <v>35</v>
+          </cell>
+          <cell r="S22">
+            <v>5</v>
+          </cell>
+          <cell r="T22">
+            <v>2</v>
+          </cell>
+          <cell r="U22">
+            <v>1</v>
+          </cell>
+          <cell r="V22">
+            <v>0</v>
+          </cell>
+          <cell r="W22">
+            <v>0</v>
+          </cell>
+          <cell r="X22">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y22">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z22">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA22">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB22">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC22">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD22">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE22">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF22">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG22">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH22">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI22">
+            <v>1.1140000000000001E-2</v>
+          </cell>
+          <cell r="AJ22">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK22">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL22">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM22">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN22">
+            <v>30</v>
+          </cell>
+          <cell r="AO22">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP22">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ22">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR22">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS22">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT22">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU22">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV22">
+            <v>94.6</v>
+          </cell>
+          <cell r="AW22">
+            <v>100.2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>His_d</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C23">
+            <v>22</v>
+          </cell>
+          <cell r="D23">
+            <v>2300</v>
+          </cell>
+          <cell r="E23">
+            <v>2</v>
+          </cell>
+          <cell r="F23">
+            <v>0.1</v>
+          </cell>
+          <cell r="G23">
+            <v>0.25</v>
+          </cell>
+          <cell r="H23">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I23">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J23">
+            <v>3.34</v>
+          </cell>
+          <cell r="K23">
+            <v>108</v>
+          </cell>
+          <cell r="L23">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M23">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N23">
+            <v>25.05</v>
+          </cell>
+          <cell r="O23">
+            <v>41.25</v>
+          </cell>
+          <cell r="P23">
+            <v>-15</v>
+          </cell>
+          <cell r="Q23">
+            <v>0.1</v>
+          </cell>
+          <cell r="R23">
+            <v>35</v>
+          </cell>
+          <cell r="S23">
+            <v>5</v>
+          </cell>
+          <cell r="T23">
+            <v>2</v>
+          </cell>
+          <cell r="U23">
+            <v>1</v>
+          </cell>
+          <cell r="V23">
+            <v>0</v>
+          </cell>
+          <cell r="W23">
+            <v>0</v>
+          </cell>
+          <cell r="X23">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y23">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z23">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA23">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB23">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC23">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD23">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE23">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF23">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG23">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH23">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI23">
+            <v>1.136E-2</v>
+          </cell>
+          <cell r="AJ23">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK23">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL23">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM23">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN23">
+            <v>30</v>
+          </cell>
+          <cell r="AO23">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP23">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ23">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR23">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS23">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT23">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU23">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV23">
+            <v>105</v>
+          </cell>
+          <cell r="AW23">
+            <v>88.2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>RBB_m</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C24">
+            <v>23</v>
+          </cell>
+          <cell r="D24">
+            <v>2300</v>
+          </cell>
+          <cell r="E24">
+            <v>2</v>
+          </cell>
+          <cell r="F24">
+            <v>0.1</v>
+          </cell>
+          <cell r="G24">
+            <v>0.25</v>
+          </cell>
+          <cell r="H24">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I24">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J24">
+            <v>3.34</v>
+          </cell>
+          <cell r="K24">
+            <v>108</v>
+          </cell>
+          <cell r="L24">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M24">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N24">
+            <v>25.05</v>
+          </cell>
+          <cell r="O24">
+            <v>41.25</v>
+          </cell>
+          <cell r="P24">
+            <v>-25</v>
+          </cell>
+          <cell r="Q24">
+            <v>0.1</v>
+          </cell>
+          <cell r="R24">
+            <v>35</v>
+          </cell>
+          <cell r="S24">
+            <v>4</v>
+          </cell>
+          <cell r="T24">
+            <v>2</v>
+          </cell>
+          <cell r="U24">
+            <v>1</v>
+          </cell>
+          <cell r="V24">
+            <v>0</v>
+          </cell>
+          <cell r="W24">
+            <v>0</v>
+          </cell>
+          <cell r="X24">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y24">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z24">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA24">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB24">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC24">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD24">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE24">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF24">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG24">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH24">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI24">
+            <v>1.166E-2</v>
+          </cell>
+          <cell r="AJ24">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK24">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL24">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM24">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN24">
+            <v>30</v>
+          </cell>
+          <cell r="AO24">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP24">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ24">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR24">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS24">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT24">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU24">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV24">
+            <v>121.8</v>
+          </cell>
+          <cell r="AW24">
+            <v>64.599999999999994</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>RBB</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C25">
+            <v>24</v>
+          </cell>
+          <cell r="D25">
+            <v>2300</v>
+          </cell>
+          <cell r="E25">
+            <v>2</v>
+          </cell>
+          <cell r="F25">
+            <v>0.1</v>
+          </cell>
+          <cell r="G25">
+            <v>0.25</v>
+          </cell>
+          <cell r="H25">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I25">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J25">
+            <v>3.34</v>
+          </cell>
+          <cell r="K25">
+            <v>108</v>
+          </cell>
+          <cell r="L25">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M25">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N25">
+            <v>25.05</v>
+          </cell>
+          <cell r="O25">
+            <v>41.25</v>
+          </cell>
+          <cell r="P25">
+            <v>-25</v>
+          </cell>
+          <cell r="Q25">
+            <v>0.1</v>
+          </cell>
+          <cell r="R25">
+            <v>35</v>
+          </cell>
+          <cell r="S25">
+            <v>4</v>
+          </cell>
+          <cell r="T25">
+            <v>2</v>
+          </cell>
+          <cell r="U25">
+            <v>1</v>
+          </cell>
+          <cell r="V25">
+            <v>0</v>
+          </cell>
+          <cell r="W25">
+            <v>0</v>
+          </cell>
+          <cell r="X25">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y25">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z25">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA25">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB25">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC25">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD25">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE25">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF25">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG25">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH25">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI25">
+            <v>1.26E-2</v>
+          </cell>
+          <cell r="AJ25">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK25">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL25">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM25">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN25">
+            <v>30</v>
+          </cell>
+          <cell r="AO25">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP25">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ25">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR25">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS25">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT25">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU25">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV25">
+            <v>153</v>
+          </cell>
+          <cell r="AW25">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>RBB_a</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C26">
+            <v>25</v>
+          </cell>
+          <cell r="D26">
+            <v>2300</v>
+          </cell>
+          <cell r="E26">
+            <v>2</v>
+          </cell>
+          <cell r="F26">
+            <v>0.1</v>
+          </cell>
+          <cell r="G26">
+            <v>0.25</v>
+          </cell>
+          <cell r="H26">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I26">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J26">
+            <v>3.34</v>
+          </cell>
+          <cell r="K26">
+            <v>108</v>
+          </cell>
+          <cell r="L26">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M26">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N26">
+            <v>25.05</v>
+          </cell>
+          <cell r="O26">
+            <v>41.25</v>
+          </cell>
+          <cell r="P26">
+            <v>-25</v>
+          </cell>
+          <cell r="Q26">
+            <v>0.1</v>
+          </cell>
+          <cell r="R26">
+            <v>35</v>
+          </cell>
+          <cell r="S26">
+            <v>4</v>
+          </cell>
+          <cell r="T26">
+            <v>2</v>
+          </cell>
+          <cell r="U26">
+            <v>1</v>
+          </cell>
+          <cell r="V26">
+            <v>0</v>
+          </cell>
+          <cell r="W26">
+            <v>0</v>
+          </cell>
+          <cell r="X26">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y26">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z26">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA26">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB26">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC26">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD26">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE26">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF26">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG26">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH26">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI26">
+            <v>1.298E-2</v>
+          </cell>
+          <cell r="AJ26">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK26">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL26">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM26">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN26">
+            <v>30</v>
+          </cell>
+          <cell r="AO26">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP26">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ26">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR26">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS26">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT26">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU26">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV26">
+            <v>157.80000000000001</v>
+          </cell>
+          <cell r="AW26">
+            <v>45.4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>LBB_m</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C27">
+            <v>26</v>
+          </cell>
+          <cell r="D27">
+            <v>2300</v>
+          </cell>
+          <cell r="E27">
+            <v>2</v>
+          </cell>
+          <cell r="F27">
+            <v>0.1</v>
+          </cell>
+          <cell r="G27">
+            <v>0.25</v>
+          </cell>
+          <cell r="H27">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I27">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J27">
+            <v>3.34</v>
+          </cell>
+          <cell r="K27">
+            <v>108</v>
+          </cell>
+          <cell r="L27">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M27">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N27">
+            <v>25.05</v>
+          </cell>
+          <cell r="O27">
+            <v>41.25</v>
+          </cell>
+          <cell r="P27">
+            <v>-25</v>
+          </cell>
+          <cell r="Q27">
+            <v>0.1</v>
+          </cell>
+          <cell r="R27">
+            <v>35</v>
+          </cell>
+          <cell r="S27">
+            <v>4</v>
+          </cell>
+          <cell r="T27">
+            <v>2</v>
+          </cell>
+          <cell r="U27">
+            <v>1</v>
+          </cell>
+          <cell r="V27">
+            <v>0</v>
+          </cell>
+          <cell r="W27">
+            <v>0</v>
+          </cell>
+          <cell r="X27">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y27">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z27">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA27">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB27">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC27">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD27">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE27">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF27">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG27">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH27">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI27">
+            <v>1.192E-2</v>
+          </cell>
+          <cell r="AJ27">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK27">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL27">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM27">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN27">
+            <v>30</v>
+          </cell>
+          <cell r="AO27">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP27">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ27">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR27">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS27">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT27">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU27">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV27">
+            <v>127.8</v>
+          </cell>
+          <cell r="AW27">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>LBB</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C28">
+            <v>27</v>
+          </cell>
+          <cell r="D28">
+            <v>2300</v>
+          </cell>
+          <cell r="E28">
+            <v>2</v>
+          </cell>
+          <cell r="F28">
+            <v>0.1</v>
+          </cell>
+          <cell r="G28">
+            <v>0.25</v>
+          </cell>
+          <cell r="H28">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I28">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J28">
+            <v>3.34</v>
+          </cell>
+          <cell r="K28">
+            <v>108</v>
+          </cell>
+          <cell r="L28">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M28">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N28">
+            <v>25.05</v>
+          </cell>
+          <cell r="O28">
+            <v>41.25</v>
+          </cell>
+          <cell r="P28">
+            <v>-25</v>
+          </cell>
+          <cell r="Q28">
+            <v>0.1</v>
+          </cell>
+          <cell r="R28">
+            <v>35</v>
+          </cell>
+          <cell r="S28">
+            <v>4</v>
+          </cell>
+          <cell r="T28">
+            <v>2</v>
+          </cell>
+          <cell r="U28">
+            <v>1</v>
+          </cell>
+          <cell r="V28">
+            <v>0</v>
+          </cell>
+          <cell r="W28">
+            <v>0</v>
+          </cell>
+          <cell r="X28">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y28">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z28">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA28">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB28">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC28">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD28">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE28">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF28">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG28">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH28">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI28">
+            <v>1.2919999999999999E-2</v>
+          </cell>
+          <cell r="AJ28">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK28">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL28">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM28">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN28">
+            <v>30</v>
+          </cell>
+          <cell r="AO28">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP28">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ28">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR28">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS28">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT28">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU28">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV28">
+            <v>157</v>
+          </cell>
+          <cell r="AW28">
+            <v>59.8</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>LBB_a</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C29">
+            <v>28</v>
+          </cell>
+          <cell r="D29">
+            <v>2300</v>
+          </cell>
+          <cell r="E29">
+            <v>2</v>
+          </cell>
+          <cell r="F29">
+            <v>0.1</v>
+          </cell>
+          <cell r="G29">
+            <v>0.25</v>
+          </cell>
+          <cell r="H29">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I29">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J29">
+            <v>3.34</v>
+          </cell>
+          <cell r="K29">
+            <v>108</v>
+          </cell>
+          <cell r="L29">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M29">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N29">
+            <v>25.05</v>
+          </cell>
+          <cell r="O29">
+            <v>41.25</v>
+          </cell>
+          <cell r="P29">
+            <v>-25</v>
+          </cell>
+          <cell r="Q29">
+            <v>0.1</v>
+          </cell>
+          <cell r="R29">
+            <v>35</v>
+          </cell>
+          <cell r="S29">
+            <v>4</v>
+          </cell>
+          <cell r="T29">
+            <v>2</v>
+          </cell>
+          <cell r="U29">
+            <v>1</v>
+          </cell>
+          <cell r="V29">
+            <v>0</v>
+          </cell>
+          <cell r="W29">
+            <v>0</v>
+          </cell>
+          <cell r="X29">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y29">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z29">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA29">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB29">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC29">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD29">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE29">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF29">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG29">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH29">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI29">
+            <v>1.3339999999999999E-2</v>
+          </cell>
+          <cell r="AJ29">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK29">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL29">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM29">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN29">
+            <v>30</v>
+          </cell>
+          <cell r="AO29">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP29">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ29">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR29">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS29">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT29">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU29">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV29">
+            <v>164.2</v>
+          </cell>
+          <cell r="AW29">
+            <v>57.8</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>RVA</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C30">
+            <v>29</v>
+          </cell>
+          <cell r="D30"/>
+          <cell r="E30"/>
+          <cell r="F30"/>
+          <cell r="G30"/>
+          <cell r="H30"/>
+          <cell r="I30"/>
+          <cell r="J30"/>
+          <cell r="K30"/>
+          <cell r="L30"/>
+          <cell r="M30"/>
+          <cell r="N30"/>
+          <cell r="O30"/>
+          <cell r="P30"/>
+          <cell r="Q30"/>
+          <cell r="R30"/>
+          <cell r="S30"/>
+          <cell r="T30"/>
+          <cell r="U30"/>
+          <cell r="V30"/>
+          <cell r="W30"/>
+          <cell r="X30"/>
+          <cell r="Y30">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z30">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA30">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB30">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC30">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD30">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE30">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF30">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG30">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH30">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI30">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ30">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK30">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL30">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM30">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN30">
+            <v>30</v>
+          </cell>
+          <cell r="AO30">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP30">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ30">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR30">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS30">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT30">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU30">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV30">
+            <v>160.20000000000002</v>
+          </cell>
+          <cell r="AW30">
+            <v>42.599999999999994</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>LVA</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C31">
+            <v>30</v>
+          </cell>
+          <cell r="D31"/>
+          <cell r="E31"/>
+          <cell r="F31"/>
+          <cell r="G31"/>
+          <cell r="H31"/>
+          <cell r="I31"/>
+          <cell r="J31"/>
+          <cell r="K31"/>
+          <cell r="L31"/>
+          <cell r="M31"/>
+          <cell r="N31"/>
+          <cell r="O31"/>
+          <cell r="P31"/>
+          <cell r="Q31"/>
+          <cell r="R31"/>
+          <cell r="S31"/>
+          <cell r="T31"/>
+          <cell r="U31"/>
+          <cell r="V31"/>
+          <cell r="W31"/>
+          <cell r="X31"/>
+          <cell r="Y31">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z31">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA31">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB31">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC31">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD31">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE31">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF31">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG31">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH31">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI31">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ31">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK31">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL31">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM31">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN31">
+            <v>30</v>
+          </cell>
+          <cell r="AO31">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP31">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ31">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR31">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS31">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT31">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU31">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV31">
+            <v>167.79999999999998</v>
+          </cell>
+          <cell r="AW31">
+            <v>56.8</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>SEP_RV_m</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C32">
+            <v>31</v>
+          </cell>
+          <cell r="D32"/>
+          <cell r="E32"/>
+          <cell r="F32"/>
+          <cell r="G32"/>
+          <cell r="H32"/>
+          <cell r="I32"/>
+          <cell r="J32"/>
+          <cell r="K32"/>
+          <cell r="L32"/>
+          <cell r="M32"/>
+          <cell r="N32"/>
+          <cell r="O32"/>
+          <cell r="P32"/>
+          <cell r="Q32"/>
+          <cell r="R32"/>
+          <cell r="S32"/>
+          <cell r="T32"/>
+          <cell r="U32"/>
+          <cell r="V32"/>
+          <cell r="W32"/>
+          <cell r="X32"/>
+          <cell r="Y32">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z32">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA32">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB32">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC32">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD32">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE32">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF32">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG32">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH32">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI32">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ32">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK32">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL32">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM32">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN32">
+            <v>30</v>
+          </cell>
+          <cell r="AO32">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP32">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ32">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR32">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS32">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT32">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU32">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV32">
+            <v>114.6</v>
+          </cell>
+          <cell r="AW32">
+            <v>59.8</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>SEP_RV</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C33">
+            <v>32</v>
+          </cell>
+          <cell r="D33"/>
+          <cell r="E33"/>
+          <cell r="F33"/>
+          <cell r="G33"/>
+          <cell r="H33"/>
+          <cell r="I33"/>
+          <cell r="J33"/>
+          <cell r="K33"/>
+          <cell r="L33"/>
+          <cell r="M33"/>
+          <cell r="N33"/>
+          <cell r="O33"/>
+          <cell r="P33"/>
+          <cell r="Q33"/>
+          <cell r="R33"/>
+          <cell r="S33"/>
+          <cell r="T33"/>
+          <cell r="U33"/>
+          <cell r="V33"/>
+          <cell r="W33"/>
+          <cell r="X33"/>
+          <cell r="Y33">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z33">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA33">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB33">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC33">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD33">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE33">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF33">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG33">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH33">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI33">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ33">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK33">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL33">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM33">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN33">
+            <v>30</v>
+          </cell>
+          <cell r="AO33">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP33">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ33">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR33">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS33">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT33">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU33">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV33">
+            <v>83</v>
+          </cell>
+          <cell r="AW33">
+            <v>91.4</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>RV_m</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C34">
+            <v>33</v>
+          </cell>
+          <cell r="D34">
+            <v>2300</v>
+          </cell>
+          <cell r="E34">
+            <v>2</v>
+          </cell>
+          <cell r="F34">
+            <v>0.1</v>
+          </cell>
+          <cell r="G34">
+            <v>0.25</v>
+          </cell>
+          <cell r="H34">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I34">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J34">
+            <v>3.34</v>
+          </cell>
+          <cell r="K34">
+            <v>108</v>
+          </cell>
+          <cell r="L34">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M34">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N34">
+            <v>25.05</v>
+          </cell>
+          <cell r="O34">
+            <v>41.25</v>
+          </cell>
+          <cell r="P34">
+            <v>-25</v>
+          </cell>
+          <cell r="Q34">
+            <v>0.1</v>
+          </cell>
+          <cell r="R34">
+            <v>35</v>
+          </cell>
+          <cell r="S34">
+            <v>4</v>
+          </cell>
+          <cell r="T34">
+            <v>2</v>
+          </cell>
+          <cell r="U34">
+            <v>1</v>
+          </cell>
+          <cell r="V34">
+            <v>0</v>
+          </cell>
+          <cell r="W34">
+            <v>0</v>
+          </cell>
+          <cell r="X34">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y34">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z34">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA34">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB34">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC34">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD34">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE34">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF34">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG34">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH34">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI34">
+            <v>1.3939999999999999E-2</v>
+          </cell>
+          <cell r="AJ34">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK34">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL34">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM34">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN34">
+            <v>30</v>
+          </cell>
+          <cell r="AO34">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP34">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ34">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR34">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS34">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT34">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU34">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV34">
+            <v>112.2</v>
+          </cell>
+          <cell r="AW34">
+            <v>38.6</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>RV</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C35">
+            <v>34</v>
+          </cell>
+          <cell r="D35">
+            <v>2300</v>
+          </cell>
+          <cell r="E35">
+            <v>2</v>
+          </cell>
+          <cell r="F35">
+            <v>0.1</v>
+          </cell>
+          <cell r="G35">
+            <v>0.25</v>
+          </cell>
+          <cell r="H35">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I35">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J35">
+            <v>3.34</v>
+          </cell>
+          <cell r="K35">
+            <v>108</v>
+          </cell>
+          <cell r="L35">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M35">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N35">
+            <v>25.05</v>
+          </cell>
+          <cell r="O35">
+            <v>41.25</v>
+          </cell>
+          <cell r="P35">
+            <v>-25</v>
+          </cell>
+          <cell r="Q35">
+            <v>0.1</v>
+          </cell>
+          <cell r="R35">
+            <v>35</v>
+          </cell>
+          <cell r="S35">
+            <v>4</v>
+          </cell>
+          <cell r="T35">
+            <v>2</v>
+          </cell>
+          <cell r="U35">
+            <v>1</v>
+          </cell>
+          <cell r="V35">
+            <v>0</v>
+          </cell>
+          <cell r="W35">
+            <v>0</v>
+          </cell>
+          <cell r="X35">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y35">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z35">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA35">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB35">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC35">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD35">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE35">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF35">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG35">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH35">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI35">
+            <v>1.3939999999999999E-2</v>
+          </cell>
+          <cell r="AJ35">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK35">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL35">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM35">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN35">
+            <v>30</v>
+          </cell>
+          <cell r="AO35">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP35">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ35">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR35">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS35">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT35">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU35">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV35">
+            <v>75</v>
+          </cell>
+          <cell r="AW35">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>SEP_LV</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C36">
+            <v>35</v>
+          </cell>
+          <cell r="D36"/>
+          <cell r="E36"/>
+          <cell r="F36"/>
+          <cell r="G36"/>
+          <cell r="H36"/>
+          <cell r="I36"/>
+          <cell r="J36"/>
+          <cell r="K36"/>
+          <cell r="L36"/>
+          <cell r="M36"/>
+          <cell r="N36"/>
+          <cell r="O36"/>
+          <cell r="P36"/>
+          <cell r="Q36"/>
+          <cell r="R36"/>
+          <cell r="S36"/>
+          <cell r="T36"/>
+          <cell r="U36"/>
+          <cell r="V36"/>
+          <cell r="W36"/>
+          <cell r="X36"/>
+          <cell r="Y36">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z36">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA36">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB36">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC36">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD36">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE36">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF36">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG36">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH36">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI36">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ36">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK36">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL36">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM36">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN36">
+            <v>30</v>
+          </cell>
+          <cell r="AO36">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP36">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ36">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR36">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS36">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT36">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU36">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV36">
+            <v>101.8</v>
+          </cell>
+          <cell r="AW36">
+            <v>105.4</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>CS_LV</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C37">
+            <v>36</v>
+          </cell>
+          <cell r="D37"/>
+          <cell r="E37"/>
+          <cell r="F37"/>
+          <cell r="G37"/>
+          <cell r="H37"/>
+          <cell r="I37"/>
+          <cell r="J37"/>
+          <cell r="K37"/>
+          <cell r="L37"/>
+          <cell r="M37"/>
+          <cell r="N37"/>
+          <cell r="O37"/>
+          <cell r="P37"/>
+          <cell r="Q37"/>
+          <cell r="R37"/>
+          <cell r="S37"/>
+          <cell r="T37"/>
+          <cell r="U37"/>
+          <cell r="V37"/>
+          <cell r="W37"/>
+          <cell r="X37"/>
+          <cell r="Y37">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z37">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA37">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB37">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC37">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD37">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE37">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF37">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG37">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH37">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI37">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ37">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK37">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL37">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM37">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN37">
+            <v>30</v>
+          </cell>
+          <cell r="AO37">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP37">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ37">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR37">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS37">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT37">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU37">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV37">
+            <v>125</v>
+          </cell>
+          <cell r="AW37">
+            <v>126.6</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>SEP_LV_m</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C38">
+            <v>37</v>
+          </cell>
+          <cell r="D38"/>
+          <cell r="E38"/>
+          <cell r="F38"/>
+          <cell r="G38"/>
+          <cell r="H38"/>
+          <cell r="I38"/>
+          <cell r="J38"/>
+          <cell r="K38"/>
+          <cell r="L38"/>
+          <cell r="M38"/>
+          <cell r="N38"/>
+          <cell r="O38"/>
+          <cell r="P38"/>
+          <cell r="Q38"/>
+          <cell r="R38"/>
+          <cell r="S38"/>
+          <cell r="T38"/>
+          <cell r="U38"/>
+          <cell r="V38"/>
+          <cell r="W38"/>
+          <cell r="X38"/>
+          <cell r="Y38">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z38">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA38">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB38">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC38">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD38">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE38">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF38">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG38">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH38">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI38">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ38">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK38">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL38">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM38">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN38">
+            <v>30</v>
+          </cell>
+          <cell r="AO38">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP38">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ38">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR38">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS38">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT38">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU38">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV38">
+            <v>131</v>
+          </cell>
+          <cell r="AW38">
+            <v>75.8</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>LV_m</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C39">
+            <v>38</v>
+          </cell>
+          <cell r="D39">
+            <v>2300</v>
+          </cell>
+          <cell r="E39">
+            <v>2</v>
+          </cell>
+          <cell r="F39">
+            <v>0.1</v>
+          </cell>
+          <cell r="G39">
+            <v>0.25</v>
+          </cell>
+          <cell r="H39">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I39">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J39">
+            <v>3.34</v>
+          </cell>
+          <cell r="K39">
+            <v>108</v>
+          </cell>
+          <cell r="L39">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M39">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N39">
+            <v>25.05</v>
+          </cell>
+          <cell r="O39">
+            <v>41.25</v>
+          </cell>
+          <cell r="P39">
+            <v>-25</v>
+          </cell>
+          <cell r="Q39">
+            <v>0.1</v>
+          </cell>
+          <cell r="R39">
+            <v>35</v>
+          </cell>
+          <cell r="S39">
+            <v>4</v>
+          </cell>
+          <cell r="T39">
+            <v>2</v>
+          </cell>
+          <cell r="U39">
+            <v>1</v>
+          </cell>
+          <cell r="V39">
+            <v>0</v>
+          </cell>
+          <cell r="W39">
+            <v>0</v>
+          </cell>
+          <cell r="X39">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y39">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z39">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA39">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB39">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC39">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD39">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE39">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF39">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG39">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH39">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI39">
+            <v>1.436E-2</v>
+          </cell>
+          <cell r="AJ39">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK39">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL39">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM39">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN39">
+            <v>30</v>
+          </cell>
+          <cell r="AO39">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP39">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ39">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR39">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS39">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT39">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU39">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV39">
+            <v>159.4</v>
+          </cell>
+          <cell r="AW39">
+            <v>94.2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>LV</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>NM</v>
+          </cell>
+          <cell r="C40">
+            <v>39</v>
+          </cell>
+          <cell r="D40">
+            <v>2300</v>
+          </cell>
+          <cell r="E40">
+            <v>2</v>
+          </cell>
+          <cell r="F40">
+            <v>0.1</v>
+          </cell>
+          <cell r="G40">
+            <v>0.25</v>
+          </cell>
+          <cell r="H40">
+            <v>3.5000000000000001E-3</v>
+          </cell>
+          <cell r="I40">
+            <v>7.0000000000000001E-3</v>
+          </cell>
+          <cell r="J40">
+            <v>3.34</v>
+          </cell>
+          <cell r="K40">
+            <v>108</v>
+          </cell>
+          <cell r="L40">
+            <v>-0.94479999999999997</v>
+          </cell>
+          <cell r="M40">
+            <v>-74.650000000000006</v>
+          </cell>
+          <cell r="N40">
+            <v>25.05</v>
+          </cell>
+          <cell r="O40">
+            <v>41.25</v>
+          </cell>
+          <cell r="P40">
+            <v>-25</v>
+          </cell>
+          <cell r="Q40">
+            <v>0.1</v>
+          </cell>
+          <cell r="R40">
+            <v>35</v>
+          </cell>
+          <cell r="S40">
+            <v>4</v>
+          </cell>
+          <cell r="T40">
+            <v>2</v>
+          </cell>
+          <cell r="U40">
+            <v>1</v>
+          </cell>
+          <cell r="V40">
+            <v>0</v>
+          </cell>
+          <cell r="W40">
+            <v>0</v>
+          </cell>
+          <cell r="X40">
+            <v>0.5</v>
+          </cell>
+          <cell r="Y40">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z40">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA40">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB40">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC40">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD40">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE40">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF40">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG40">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH40">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI40">
+            <v>1.436E-2</v>
+          </cell>
+          <cell r="AJ40">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK40">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL40">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM40">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN40">
+            <v>30</v>
+          </cell>
+          <cell r="AO40">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP40">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ40">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR40">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS40">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT40">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU40">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV40">
+            <v>143.4</v>
+          </cell>
+          <cell r="AW40">
+            <v>121.4</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>RV_mm</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C41">
+            <v>40</v>
+          </cell>
+          <cell r="D41"/>
+          <cell r="E41"/>
+          <cell r="F41"/>
+          <cell r="G41"/>
+          <cell r="H41"/>
+          <cell r="I41"/>
+          <cell r="J41"/>
+          <cell r="K41"/>
+          <cell r="L41"/>
+          <cell r="M41"/>
+          <cell r="N41"/>
+          <cell r="O41"/>
+          <cell r="P41"/>
+          <cell r="Q41"/>
+          <cell r="R41"/>
+          <cell r="S41"/>
+          <cell r="T41"/>
+          <cell r="U41"/>
+          <cell r="V41"/>
+          <cell r="W41"/>
+          <cell r="X41"/>
+          <cell r="Y41">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z41">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA41">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB41">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC41">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD41">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE41">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF41">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG41">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH41">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI41">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ41">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK41">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL41">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM41">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN41">
+            <v>30</v>
+          </cell>
+          <cell r="AO41">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP41">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ41">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR41">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS41">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT41">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU41">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV41">
+            <v>112.2</v>
+          </cell>
+          <cell r="AW41">
+            <v>33.6</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>RVm</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C42">
+            <v>41</v>
+          </cell>
+          <cell r="D42"/>
+          <cell r="E42"/>
+          <cell r="F42"/>
+          <cell r="G42"/>
+          <cell r="H42"/>
+          <cell r="I42"/>
+          <cell r="J42"/>
+          <cell r="K42"/>
+          <cell r="L42"/>
+          <cell r="M42"/>
+          <cell r="N42"/>
+          <cell r="O42"/>
+          <cell r="P42"/>
+          <cell r="Q42"/>
+          <cell r="R42"/>
+          <cell r="S42"/>
+          <cell r="T42"/>
+          <cell r="U42"/>
+          <cell r="V42"/>
+          <cell r="W42"/>
+          <cell r="X42"/>
+          <cell r="Y42">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z42">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA42">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB42">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC42">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD42">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE42">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF42">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG42">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH42">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI42">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ42">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK42">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL42">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM42">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN42">
+            <v>30</v>
+          </cell>
+          <cell r="AO42">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP42">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ42">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR42">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS42">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT42">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU42">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV42">
+            <v>67</v>
+          </cell>
+          <cell r="AW42">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>LV_mm</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C43">
+            <v>42</v>
+          </cell>
+          <cell r="D43"/>
+          <cell r="E43"/>
+          <cell r="F43"/>
+          <cell r="G43"/>
+          <cell r="H43"/>
+          <cell r="I43"/>
+          <cell r="J43"/>
+          <cell r="K43"/>
+          <cell r="L43"/>
+          <cell r="M43"/>
+          <cell r="N43"/>
+          <cell r="O43"/>
+          <cell r="P43"/>
+          <cell r="Q43"/>
+          <cell r="R43"/>
+          <cell r="S43"/>
+          <cell r="T43"/>
+          <cell r="U43"/>
+          <cell r="V43"/>
+          <cell r="W43"/>
+          <cell r="X43"/>
+          <cell r="Y43">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z43">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA43">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB43">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC43">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD43">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE43">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF43">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG43">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH43">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI43">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ43">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK43">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL43">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM43">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN43">
+            <v>30</v>
+          </cell>
+          <cell r="AO43">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP43">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ43">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR43">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS43">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT43">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU43">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV43">
+            <v>162.4</v>
+          </cell>
+          <cell r="AW43">
+            <v>94.2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>LVm</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>M</v>
+          </cell>
+          <cell r="C44">
+            <v>43</v>
+          </cell>
+          <cell r="D44"/>
+          <cell r="E44"/>
+          <cell r="F44"/>
+          <cell r="G44"/>
+          <cell r="H44"/>
+          <cell r="I44"/>
+          <cell r="J44"/>
+          <cell r="K44"/>
+          <cell r="L44"/>
+          <cell r="M44"/>
+          <cell r="N44"/>
+          <cell r="O44"/>
+          <cell r="P44"/>
+          <cell r="Q44"/>
+          <cell r="R44"/>
+          <cell r="S44"/>
+          <cell r="T44"/>
+          <cell r="U44"/>
+          <cell r="V44"/>
+          <cell r="W44"/>
+          <cell r="X44"/>
+          <cell r="Y44">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z44">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA44">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB44">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC44">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD44">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE44">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF44">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG44">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH44">
+            <v>-1.7809705166582E-2</v>
+          </cell>
+          <cell r="AI44">
+            <v>1.3971373768643099E-2</v>
+          </cell>
+          <cell r="AJ44">
+            <v>1.7832110055871001E-3</v>
+          </cell>
+          <cell r="AK44">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL44">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM44">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN44">
+            <v>30</v>
+          </cell>
+          <cell r="AO44">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP44">
+            <v>122.870184758603</v>
+          </cell>
+          <cell r="AQ44">
+            <v>0.28999999999999998</v>
+          </cell>
+          <cell r="AR44">
+            <v>62.89</v>
+          </cell>
+          <cell r="AS44">
+            <v>0.7</v>
+          </cell>
+          <cell r="AT44">
+            <v>10.99</v>
+          </cell>
+          <cell r="AU44">
+            <v>0.04</v>
+          </cell>
+          <cell r="AV44">
+            <v>146.4</v>
+          </cell>
+          <cell r="AW44">
+            <v>121.4</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>REF</v>
+          </cell>
+          <cell r="B45"/>
+          <cell r="C45"/>
+          <cell r="D45"/>
+          <cell r="E45"/>
+          <cell r="F45"/>
+          <cell r="G45"/>
+          <cell r="H45"/>
+          <cell r="I45"/>
+          <cell r="J45"/>
+          <cell r="K45"/>
+          <cell r="L45"/>
+          <cell r="M45"/>
+          <cell r="N45"/>
+          <cell r="O45"/>
+          <cell r="P45"/>
+          <cell r="Q45"/>
+          <cell r="R45"/>
+          <cell r="S45"/>
+          <cell r="T45"/>
+          <cell r="U45"/>
+          <cell r="V45"/>
+          <cell r="W45"/>
+          <cell r="X45"/>
+          <cell r="Y45">
+            <v>-8.6999999999999994E-3</v>
+          </cell>
+          <cell r="Z45">
+            <v>-0.19089999999999999</v>
+          </cell>
+          <cell r="AA45">
+            <v>-0.19040000000000001</v>
+          </cell>
+          <cell r="AB45">
+            <v>-2.3599999999999999E-2</v>
+          </cell>
+          <cell r="AC45">
+            <v>-4.5499999999999999E-2</v>
+          </cell>
+          <cell r="AD45">
+            <v>-1.29E-2</v>
+          </cell>
+          <cell r="AE45">
+            <v>-6.8999999999999999E-3</v>
+          </cell>
+          <cell r="AF45">
+            <v>7.5899999999999995E-2</v>
+          </cell>
+          <cell r="AG45">
+            <v>6.8265000000000002</v>
+          </cell>
+          <cell r="AH45">
+            <v>-3.32E-2</v>
+          </cell>
+          <cell r="AI45">
+            <v>2.8000000000000001E-2</v>
+          </cell>
+          <cell r="AJ45">
+            <v>2E-3</v>
+          </cell>
+          <cell r="AK45">
+            <v>0.7772</v>
+          </cell>
+          <cell r="AL45">
+            <v>5.8900000000000001E-2</v>
+          </cell>
+          <cell r="AM45">
+            <v>0.27660000000000001</v>
+          </cell>
+          <cell r="AN45">
+            <v>30</v>
+          </cell>
+          <cell r="AO45">
+            <v>44.5</v>
+          </cell>
+          <cell r="AP45">
+            <v>131.1</v>
+          </cell>
+          <cell r="AQ45"/>
+          <cell r="AR45"/>
+          <cell r="AS45"/>
+          <cell r="AT45"/>
+          <cell r="AU45"/>
+          <cell r="AV45">
+            <v>0</v>
+          </cell>
+          <cell r="AW45">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -716,7 +6488,7 @@
   <dimension ref="A1:AZ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="AW4" sqref="AW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1164,7 +6936,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41552D2-3A03-43F6-8D98-671934EB107C}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -1388,4 +7160,258 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DD0280A-F296-4E17-957E-768181310808}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>77.022105555423195</v>
+      </c>
+      <c r="D2">
+        <v>102.74552181273501</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>SQRT((C3-C4)^2+(D3-D4)^2)</f>
+        <v>9.0000004050001632</v>
+      </c>
+      <c r="G2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2">
+        <f>VLOOKUP(H2,[1]Node!A:AW,48,FALSE)</f>
+        <v>70.2</v>
+      </c>
+      <c r="J2">
+        <f>VLOOKUP(H2,[1]Node!A:AW,49,FALSE)</f>
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>75.556250144485304</v>
+      </c>
+      <c r="D3">
+        <v>106.467251162677</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>SQRT((C2-C3)^2+(D2-D3)^2)</f>
+        <v>4.0000001799994411</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3">
+        <f>VLOOKUP(H3,[1]Node!A:AW,48,FALSE)</f>
+        <v>79.400000000000006</v>
+      </c>
+      <c r="J3">
+        <f>VLOOKUP(H3,[1]Node!A:AW,49,FALSE)</f>
+        <v>107.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>72.258075469874996</v>
+      </c>
+      <c r="D4">
+        <v>114.841142200048</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F8" si="0">SQRT((C5-C4)^2+(D5-D4)^2)</f>
+        <v>2.0000000899997024</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>71.5251477644061</v>
+      </c>
+      <c r="D5">
+        <v>116.70200687501899</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>146.14901202656901</v>
+      </c>
+      <c r="D6">
+        <v>52.157502287235403</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f>SQRT((C7-C8)^2+(D7-D8)^2)</f>
+        <v>9.0000822596236087</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I6">
+        <f>VLOOKUP(H6,[1]Node!A:AW,48,FALSE)</f>
+        <v>121.8</v>
+      </c>
+      <c r="J6">
+        <f>VLOOKUP(H6,[1]Node!A:AW,49,FALSE)</f>
+        <v>64.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>149.433176079595</v>
+      </c>
+      <c r="D7">
+        <v>49.8739614067566</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f>SQRT((C6-C7)^2+(D6-D7)^2)</f>
+        <v>4.0000365598336725</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7">
+        <f>VLOOKUP(H7,[1]Node!A:AW,48,FALSE)</f>
+        <v>160.20000000000002</v>
+      </c>
+      <c r="J7">
+        <f>VLOOKUP(H7,[1]Node!A:AW,49,FALSE)</f>
+        <v>42.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>156.822545198901</v>
+      </c>
+      <c r="D8">
+        <v>44.7359944256795</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.000018279916846</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>158.46462722541401</v>
+      </c>
+      <c r="D9">
+        <v>43.594223985440102</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>